--- a/Fog/contacts.xlsx
+++ b/Fog/contacts.xlsx
@@ -12,12 +12,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Hey!!!!</t>
-  </si>
-  <si>
-    <t>hej</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+  <si>
+    <t>Produkt</t>
+  </si>
+  <si>
+    <t>Antal</t>
+  </si>
+  <si>
+    <t>Varenummer</t>
+  </si>
+  <si>
+    <t>Pris</t>
+  </si>
+  <si>
+    <t>19x100 mm. trykimp. Bræt</t>
+  </si>
+  <si>
+    <t>45x95 Reglar ubh.</t>
+  </si>
+  <si>
+    <t>45x195 spærtræ ubh</t>
+  </si>
+  <si>
+    <t>97x97 mm. trykimp. Stolpe</t>
+  </si>
+  <si>
+    <t>25x150 mm. trykimp. Bræt</t>
+  </si>
+  <si>
+    <t>38x73 mm. taglægte T1</t>
   </si>
 </sst>
 </file>
@@ -68,23 +92,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="19.921875" customWidth="true"/>
+    <col min="1" max="1" width="23.90625" customWidth="true"/>
+    <col min="2" max="2" width="9.9609375" customWidth="true"/>
+    <col min="3" max="3" width="23.90625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
+      <c r="B1" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.4985214E7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.4635712E7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.4541259E7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5.4541259E7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>166.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.4845621E7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5.4124569E7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.4852365E7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5.4857125E7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.4124569E7</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.4475869E7</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5.4852365E7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5.4475869E7</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5.4852365E7</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5.4845621E7</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5.4635874E7</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5.4874526E7</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
